--- a/image/library.xlsx
+++ b/image/library.xlsx
@@ -1083,45 +1083,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.94140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.53515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="88.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="88.19140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="128.24609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="129.28125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/library.xlsx
+++ b/image/library.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="298">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -390,10 +390,6 @@
   </si>
   <si>
     <t>Library.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the library</t>
@@ -1083,45 +1079,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.53515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="88.19140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="88.41015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="129.28125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="128.24609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2491,16 +2487,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2565,13 +2561,13 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2579,7 +2575,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2602,19 +2598,19 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2663,7 +2659,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2672,7 +2668,7 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -2692,7 +2688,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2715,16 +2711,16 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2774,7 +2770,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2789,10 +2785,10 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2803,7 +2799,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2826,13 +2822,13 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2883,7 +2879,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2912,7 +2908,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2938,13 +2934,13 @@
         <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2970,14 +2966,14 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
       </c>
@@ -2994,7 +2990,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>48</v>
@@ -3009,13 +3005,13 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3023,7 +3019,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3046,19 +3042,19 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3107,7 +3103,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3122,13 +3118,13 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3136,7 +3132,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3159,13 +3155,13 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3192,14 +3188,14 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3216,7 +3212,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>48</v>
@@ -3231,13 +3227,13 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3245,7 +3241,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3268,13 +3264,13 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3282,35 +3278,35 @@
         <v>40</v>
       </c>
       <c r="P20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Q20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3327,7 +3323,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3356,11 +3352,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3379,16 +3375,16 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3438,7 +3434,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3453,13 +3449,13 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3467,7 +3463,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3490,19 +3486,19 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3551,7 +3547,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3566,13 +3562,13 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3580,7 +3576,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3603,16 +3599,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3662,7 +3658,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3677,10 +3673,10 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3691,7 +3687,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3714,16 +3710,16 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3773,7 +3769,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3788,10 +3784,10 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3802,7 +3798,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3825,19 +3821,19 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3886,7 +3882,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3901,10 +3897,10 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3915,7 +3911,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3938,16 +3934,16 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3973,14 +3969,14 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3997,7 +3993,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4012,10 +4008,10 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4026,7 +4022,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4049,16 +4045,16 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4108,7 +4104,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4123,13 +4119,13 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>119</v>
@@ -4137,7 +4133,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4160,13 +4156,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4217,7 +4213,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4232,7 +4228,7 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>40</v>
@@ -4246,11 +4242,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4269,17 +4265,17 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4328,7 +4324,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4343,10 +4339,10 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4357,7 +4353,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4380,16 +4376,16 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4439,7 +4435,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4454,10 +4450,10 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4468,7 +4464,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4491,19 +4487,19 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4552,7 +4548,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4567,10 +4563,10 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4581,7 +4577,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4604,19 +4600,19 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4665,7 +4661,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4680,10 +4676,10 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4694,7 +4690,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4717,17 +4713,17 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4752,14 +4748,14 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4776,7 +4772,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4791,7 +4787,7 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
@@ -4805,7 +4801,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4828,13 +4824,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4885,7 +4881,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4900,7 +4896,7 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
@@ -4914,7 +4910,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4937,13 +4933,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4994,7 +4990,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5023,7 +5019,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5046,13 +5042,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5103,7 +5099,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5118,7 +5114,7 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>40</v>
@@ -5132,7 +5128,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5155,13 +5151,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5212,7 +5208,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5227,7 +5223,7 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>40</v>
@@ -5241,7 +5237,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5264,19 +5260,19 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5325,7 +5321,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5340,7 +5336,7 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
@@ -5354,7 +5350,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5377,13 +5373,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5434,7 +5430,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5449,7 +5445,7 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>40</v>
@@ -5463,7 +5459,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5486,13 +5482,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5543,7 +5539,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5558,7 +5554,7 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>40</v>
@@ -5572,7 +5568,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5595,13 +5591,13 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5652,7 +5648,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5667,7 +5663,7 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
